--- a/Timesheets/Matthew Timesheet.xlsx
+++ b/Timesheets/Matthew Timesheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF84B3D-2C43-4596-8583-A1F0DD027B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E95376-EDFB-4F28-8B81-0B4323DD8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aidan" sheetId="1" r:id="rId1"/>
+    <sheet name="Matthew" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -44,40 +44,55 @@
     <t>5 h</t>
   </si>
   <si>
-    <t>Wireframe</t>
-  </si>
-  <si>
-    <t>Researching GUI modules</t>
-  </si>
-  <si>
     <t>3 h</t>
-  </si>
-  <si>
-    <t>Qt tutorial</t>
-  </si>
-  <si>
-    <t>Tileserver research</t>
   </si>
   <si>
     <t>6 h</t>
   </si>
   <si>
-    <t>Rendered map with pan and zoom functionality using OpenBox tileserver in Python within local repository</t>
+    <t>1 h</t>
   </si>
   <si>
-    <t>Switch to PySide and tested floating UI elements over map</t>
+    <t>New ui sketch</t>
   </si>
   <si>
-    <t>Created expandable panel UI object and created directional button map navigation UI object</t>
+    <t>7 h</t>
   </si>
   <si>
-    <t>Fixed layout issues with the expandable panel</t>
+    <t>created layout for new UI</t>
   </si>
   <si>
-    <t>12 h</t>
+    <t>4 h</t>
   </si>
   <si>
-    <t>Transferred UI onto folium-based map and conntected to navigation in order to merge with main branch</t>
+    <t>recreated the toolbar with proper layout controls and added the ability for the UI to resize to window size adjustments</t>
+  </si>
+  <si>
+    <t>added tabs and added scrollbar</t>
+  </si>
+  <si>
+    <t>fixed query pane content to display on all tabs</t>
+  </si>
+  <si>
+    <t>fixed help box obscuring map panning controls when closed</t>
+  </si>
+  <si>
+    <t>added scrollbar to help box and moved playback speed into toolbar</t>
+  </si>
+  <si>
+    <t>added ability to delete tabs, created help box, and introduced playback speed</t>
+  </si>
+  <si>
+    <t>added map legend and styled all buttons change appearance when pressed</t>
+  </si>
+  <si>
+    <t>made slider appear disabled when start date is equal to end date</t>
+  </si>
+  <si>
+    <t>10 h</t>
+  </si>
+  <si>
+    <t>fixed inconsistent help box positioning, made the play button disappear when start date is equal to end date, and embedded image assets into application executable</t>
   </si>
 </sst>
 </file>
@@ -416,7 +431,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -443,177 +458,207 @@
     </row>
     <row r="2" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
-        <v>45090</v>
+        <v>45119</v>
       </c>
       <c r="B2" s="9">
-        <v>0.64583333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C2" s="9">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
-        <v>45091</v>
+        <v>45120</v>
       </c>
       <c r="B3" s="9">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C3" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11">
+        <v>45121</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
+      <c r="C4" s="9">
+        <v>0.5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
+        <v>45126</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11">
-        <v>45092</v>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
-        <v>45096</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
-        <v>45097</v>
+        <v>45127</v>
       </c>
       <c r="B6" s="9">
         <v>0.75</v>
       </c>
       <c r="C6" s="9">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
-        <v>45098</v>
+        <v>45128</v>
       </c>
       <c r="B7" s="9">
         <v>0.70833333333333337</v>
       </c>
       <c r="C7" s="9">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <v>45129</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>45129</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
+        <v>45130</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
+        <v>45132</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
+      <c r="E11" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
-        <v>45099</v>
+    <row r="12" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
+        <v>45130</v>
       </c>
-      <c r="B8" s="9">
-        <v>0.79166666666666663</v>
+      <c r="B12" s="9">
+        <v>0.29166666666666669</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
+      <c r="C12" s="9">
+        <v>0.41666666666666669</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
-        <v>45102</v>
+    <row r="13" spans="1:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
+        <v>45130</v>
       </c>
-      <c r="B9" s="9">
-        <v>0.64583333333333337</v>
+      <c r="B13" s="9">
+        <v>0.58333333333333337</v>
       </c>
-      <c r="C9" s="9">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11">
-        <v>45103</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="C13" s="9">
         <v>0.5</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
+      <c r="D13" s="10" t="s">
+        <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
+      <c r="E13" s="10" t="s">
+        <v>23</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
